--- a/valeurs_freqAA.xlsx
+++ b/valeurs_freqAA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/edmond_berne_etu_unice_fr/Documents/Documents/Cours/Cours Polytech/GB4/Python/Projet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/edmond_berne_etu_unice_fr/Documents/Documents/Cours/Cours Polytech/GB4/S1/Python/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_352CC89220DFC0EFB8C6CFCD501811FF99D6FC6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C99C198-4F3C-4A8B-A349-EA856D059EDE}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_352CC89220DFC0EFB8C6CFCD501811FF99D6FC6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9400095B-CA7D-4CD9-BBA7-AE5E76C35D40}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="150" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -462,10 +462,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,6 +642,66 @@
         <v>6.85</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
